--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 лгрсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 лгрсч ост ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\25,11,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\11,25\25,11,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909D30C5-B82C-40F3-A312-D3B21BF1287E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C25E6-D754-49A5-86B6-3A2E8FA945AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="143">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>01,12,</t>
+  </si>
+  <si>
+    <t>ротация на 7382</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1638,7 @@
       </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1">
-        <f t="shared" ref="AJ7:AK70" si="10">G7*U7</f>
+        <f t="shared" ref="AJ7:AJ70" si="10">G7*U7</f>
         <v>17</v>
       </c>
       <c r="AK7" s="1">
@@ -2960,7 +2963,9 @@
       <c r="AH18" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AI18" s="1"/>
+      <c r="AI18" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="AJ18" s="1">
         <f t="shared" si="10"/>
         <v>7.92</v>
@@ -9273,7 +9278,7 @@
       </c>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1">
-        <f t="shared" ref="AJ71:AK93" si="30">G71*U71</f>
+        <f t="shared" ref="AJ71:AJ93" si="30">G71*U71</f>
         <v>7.92</v>
       </c>
       <c r="AK71" s="1">
